--- a/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
+++ b/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
@@ -73,55 +73,55 @@
     <t>C3_M</t>
   </si>
   <si>
+    <t>G_X</t>
+  </si>
+  <si>
+    <t>I_FITTED</t>
+  </si>
+  <si>
+    <t>I_X</t>
+  </si>
+  <si>
+    <t>M_A</t>
+  </si>
+  <si>
+    <t>M_X</t>
+  </si>
+  <si>
+    <t>G_FITTED</t>
+  </si>
+  <si>
+    <t>I_D</t>
+  </si>
+  <si>
+    <t>CPV_A</t>
+  </si>
+  <si>
+    <t>M_FITTED</t>
+  </si>
+  <si>
+    <t>G_A</t>
+  </si>
+  <si>
+    <t>M_D</t>
+  </si>
+  <si>
+    <t>G_D</t>
+  </si>
+  <si>
+    <t>CPV_D</t>
+  </si>
+  <si>
     <t>CPV_X</t>
   </si>
   <si>
-    <t>CPV_A</t>
+    <t>I_A</t>
   </si>
   <si>
     <t>CPV_FITTED</t>
   </si>
   <si>
-    <t>I_X</t>
-  </si>
-  <si>
-    <t>M_FITTED</t>
-  </si>
-  <si>
-    <t>I_D</t>
-  </si>
-  <si>
-    <t>G_D</t>
-  </si>
-  <si>
-    <t>CPV_D</t>
-  </si>
-  <si>
-    <t>I_A</t>
-  </si>
-  <si>
-    <t>M_X</t>
-  </si>
-  <si>
     <t>GDE</t>
-  </si>
-  <si>
-    <t>M_D</t>
-  </si>
-  <si>
-    <t>G_FITTED</t>
-  </si>
-  <si>
-    <t>G_A</t>
-  </si>
-  <si>
-    <t>I_FITTED</t>
-  </si>
-  <si>
-    <t>M_A</t>
-  </si>
-  <si>
-    <t>G_X</t>
   </si>
 </sst>
 </file>
@@ -693,25 +693,25 @@
         <v>0</v>
       </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>1825512.8</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -779,52 +779,52 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>411943.9892882707</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>134150.6429378157</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>474417.4225663497</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1351731.284733497</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>474417.4225663497</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="AK3">
         <v>1870406.3</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>134150.6429378157</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>411943.9892882707</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -892,52 +892,52 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>414043.3396703994</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>132596.6015634548</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>512704.424158862</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1399574.647459125</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>512704.424158862</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AK4">
         <v>1935213.7</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>132596.6015634548</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>414043.3396703994</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1005,52 +1005,52 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>468242.8233890713</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>134806.6977130932</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>626676.8708797833</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1442298.247648307</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>626676.8708797833</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
+      <c r="AK5">
         <v>2043909.7</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>134806.6977130932</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>468242.8233890713</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1118,52 +1118,52 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>508926.5276223539</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>144267.9636326465</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>735234.5818203983</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1501461.973481265</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>735234.5818203983</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
+      <c r="AK6">
         <v>2166950.6</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>144267.9636326465</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>508926.5276223539</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1231,52 +1231,52 @@
         <v>0</v>
       </c>
       <c r="V7">
+        <v>550158.6805236844</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.011875537</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>150415.5421331041</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>-0.0059448444</v>
       </c>
-      <c r="W7">
+      <c r="AC7">
+        <v>706189.2295817243</v>
+      </c>
+      <c r="AD7">
+        <v>-0.1008167145</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0.0366210094</v>
+      </c>
+      <c r="AJ7">
         <v>1546576.884142847</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>706189.2295817243</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0.0366210094</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
+      <c r="AK7">
         <v>2244080</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>150415.5421331041</v>
-      </c>
-      <c r="AH7">
-        <v>-0.1008167145</v>
-      </c>
-      <c r="AI7">
-        <v>550158.6805236844</v>
-      </c>
-      <c r="AJ7">
-        <v>0.011875537</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1344,52 +1344,52 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>671393.4993739226</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.0281408606</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>153588.436001128</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>-0.0273947796</v>
       </c>
-      <c r="W8">
+      <c r="AC8">
+        <v>891039.1481407079</v>
+      </c>
+      <c r="AD8">
+        <v>0.0723917115</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0.0451583176</v>
+      </c>
+      <c r="AJ8">
         <v>1592550.403273427</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>891039.1481407079</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0.0451583176</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
+      <c r="AK8">
         <v>2417041.8</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>153588.436001128</v>
-      </c>
-      <c r="AH8">
-        <v>0.0723917115</v>
-      </c>
-      <c r="AI8">
-        <v>671393.4993739226</v>
-      </c>
-      <c r="AJ8">
-        <v>0.0281408606</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1457,52 +1457,52 @@
         <v>0</v>
       </c>
       <c r="V9">
+        <v>806063.058972032</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.0267181095</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>177551.6654182632</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>-0.0046869225</v>
       </c>
-      <c r="W9">
+      <c r="AC9">
+        <v>1062193.666691543</v>
+      </c>
+      <c r="AD9">
+        <v>-0.0522855343</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>-0.0260052495</v>
+      </c>
+      <c r="AJ9">
         <v>1652846.638169834</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>1062193.666691543</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>-0.0260052495</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
+      <c r="AK9">
         <v>2598996.2</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>177551.6654182632</v>
-      </c>
-      <c r="AH9">
-        <v>-0.0522855343</v>
-      </c>
-      <c r="AI9">
-        <v>806063.058972032</v>
-      </c>
-      <c r="AJ9">
-        <v>0.0267181095</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1570,52 +1570,52 @@
         <v>0</v>
       </c>
       <c r="V10">
+        <v>886761.4804798999</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>-0.0508146276</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>181910.0016105403</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>-0.0146060141</v>
       </c>
-      <c r="W10">
+      <c r="AC10">
+        <v>1214574.273951645</v>
+      </c>
+      <c r="AD10">
+        <v>-0.005720257800000001</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>-0.0139460445</v>
+      </c>
+      <c r="AJ10">
         <v>1763441.663769815</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>1214574.273951645</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>-0.0139460445</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
+      <c r="AK10">
         <v>2793224.9</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>181910.0016105403</v>
-      </c>
-      <c r="AH10">
-        <v>-0.005720257800000001</v>
-      </c>
-      <c r="AI10">
-        <v>886761.4804798999</v>
-      </c>
-      <c r="AJ10">
-        <v>-0.0508146276</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1683,52 +1683,52 @@
         <v>0</v>
       </c>
       <c r="V11">
+        <v>856043.5118298468</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.0057838611</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>174395.1757120367</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>-0.0339526789</v>
       </c>
-      <c r="W11">
+      <c r="AC11">
+        <v>972424.2366263225</v>
+      </c>
+      <c r="AD11">
+        <v>0.0962277715</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>-0.014214803</v>
+      </c>
+      <c r="AJ11">
         <v>1865085.699112024</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>972424.2366263225</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>-0.014214803</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
+      <c r="AK11">
         <v>2838795.900004911</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>174395.1757120367</v>
-      </c>
-      <c r="AH11">
-        <v>0.0962277715</v>
-      </c>
-      <c r="AI11">
-        <v>856043.5118298468</v>
-      </c>
-      <c r="AJ11">
-        <v>0.0057838611</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1796,52 +1796,52 @@
         <v>0</v>
       </c>
       <c r="V12">
+        <v>873429.1465911651</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.0650439827</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>188845.3784153127</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>-0.0264495572</v>
       </c>
-      <c r="W12">
+      <c r="AC12">
+        <v>945526.951702305</v>
+      </c>
+      <c r="AD12">
+        <v>0.1143771615</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>-0.0075041896</v>
+      </c>
+      <c r="AJ12">
         <v>1896129.344496943</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>945526.951702305</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0.0075041896</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
+      <c r="AK12">
         <v>2925262.99999084</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>188845.3784153127</v>
-      </c>
-      <c r="AH12">
-        <v>0.1143771615</v>
-      </c>
-      <c r="AI12">
-        <v>873429.1465911651</v>
-      </c>
-      <c r="AJ12">
-        <v>0.0650439827</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1909,52 +1909,52 @@
         <v>0</v>
       </c>
       <c r="V13">
+        <v>924786.1817368278</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.009083160100000001</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>208038.8410709633</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>-0.0111558514</v>
       </c>
-      <c r="W13">
+      <c r="AC13">
+        <v>1116927.553016821</v>
+      </c>
+      <c r="AD13">
+        <v>0.1439768935</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0.0178353155</v>
+      </c>
+      <c r="AJ13">
         <v>1935630.606565933</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>1116927.553016821</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.0178353155</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
+      <c r="AK13">
         <v>3095840.199948154</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>208038.8410709633</v>
-      </c>
-      <c r="AH13">
-        <v>0.1439768935</v>
-      </c>
-      <c r="AI13">
-        <v>924786.1817368278</v>
-      </c>
-      <c r="AJ13">
-        <v>0.009083160100000001</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2022,52 +2022,52 @@
         <v>0</v>
       </c>
       <c r="V14">
+        <v>1041333.090404288</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>-0.0392027616</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>236401.4988087929</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>0.0014647886</v>
       </c>
-      <c r="W14">
+      <c r="AC14">
+        <v>1310725.910222115</v>
+      </c>
+      <c r="AD14">
+        <v>0.0669155219</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0.0186243777</v>
+      </c>
+      <c r="AJ14">
         <v>2004661.443213911</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>1310725.910222115</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.0186243777</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
+      <c r="AK14">
         <v>3321270.699924171</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>236401.4988087929</v>
-      </c>
-      <c r="AH14">
-        <v>0.0669155219</v>
-      </c>
-      <c r="AI14">
-        <v>1041333.090404288</v>
-      </c>
-      <c r="AJ14">
-        <v>-0.0392027616</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2135,52 +2135,52 @@
         <v>0</v>
       </c>
       <c r="V15">
+        <v>1203400.741438531</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>-0.1226664373</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>254297.2044695461</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>0.0200822396</v>
       </c>
-      <c r="W15">
+      <c r="AC15">
+        <v>1610242.823159597</v>
+      </c>
+      <c r="AD15">
+        <v>0.0929918579</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0.0053637108</v>
+      </c>
+      <c r="AJ15">
         <v>2108767.172806555</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>1610242.823159597</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0.0053637108</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
+      <c r="AK15">
         <v>3640495.985507641</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>254297.2044695461</v>
-      </c>
-      <c r="AH15">
-        <v>0.0929918579</v>
-      </c>
-      <c r="AI15">
-        <v>1203400.741438531</v>
-      </c>
-      <c r="AJ15">
-        <v>-0.1226664373</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2248,52 +2248,52 @@
         <v>0</v>
       </c>
       <c r="V16">
+        <v>1379832.491285047</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>-0.1164920029</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>279932.7775493472</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>0.0180111792</v>
       </c>
-      <c r="W16">
+      <c r="AC16">
+        <v>1765604.184740992</v>
+      </c>
+      <c r="AD16">
+        <v>0.09745998460000001</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>-0.010872342</v>
+      </c>
+      <c r="AJ16">
         <v>2261012.343321501</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1765604.184740992</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>-0.010872342</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
+      <c r="AK16">
         <v>3975605.280395693</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>279932.7775493472</v>
-      </c>
-      <c r="AH16">
-        <v>0.09745998460000001</v>
-      </c>
-      <c r="AI16">
-        <v>1379832.491285047</v>
-      </c>
-      <c r="AJ16">
-        <v>-0.1164920029</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2361,52 +2361,52 @@
         <v>0</v>
       </c>
       <c r="V17">
+        <v>1547384.583689336</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>-0.08555108360000001</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>306010.5666965055</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0.0090988063</v>
       </c>
-      <c r="W17">
+      <c r="AC17">
+        <v>1859234.447303268</v>
+      </c>
+      <c r="AD17">
+        <v>0.1009181204</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>-0.0183324964</v>
+      </c>
+      <c r="AJ17">
         <v>2425257.730707097</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1859234.447303268</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>-0.0183324964</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
+      <c r="AK17">
         <v>4305205.604627896</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>306010.5666965055</v>
-      </c>
-      <c r="AH17">
-        <v>0.1009181204</v>
-      </c>
-      <c r="AI17">
-        <v>1547384.583689336</v>
-      </c>
-      <c r="AJ17">
-        <v>-0.08555108360000001</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2474,52 +2474,52 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>1689018.647575371</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>-0.0196669089</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>328773.722412137</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>-0.0119425546</v>
       </c>
-      <c r="W18">
+      <c r="AC18">
+        <v>1847296.336925615</v>
+      </c>
+      <c r="AD18">
+        <v>0.1036879014</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>-0.0170100571</v>
+      </c>
+      <c r="AJ18">
         <v>2587801.351061848</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1847296.336925615</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>-0.0170100571</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
+      <c r="AK18">
         <v>4582305.152295128</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>328773.722412137</v>
-      </c>
-      <c r="AH18">
-        <v>0.1036879014</v>
-      </c>
-      <c r="AI18">
-        <v>1689018.647575371</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.0196669089</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2587,52 +2587,52 @@
         <v>0</v>
       </c>
       <c r="V19">
+        <v>1824995.955316461</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0.0117114405</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>349818.2199411287</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>-0.0294935944</v>
       </c>
-      <c r="W19">
+      <c r="AC19">
+        <v>1853895.887169954</v>
+      </c>
+      <c r="AD19">
+        <v>0.1061888072</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>-0.0180544991</v>
+      </c>
+      <c r="AJ19">
         <v>2720714.348864293</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>1853895.887169954</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>-0.0180544991</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
+      <c r="AK19">
         <v>4822993.710257015</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>349818.2199411287</v>
-      </c>
-      <c r="AH19">
-        <v>0.1061888072</v>
-      </c>
-      <c r="AI19">
-        <v>1824995.955316461</v>
-      </c>
-      <c r="AJ19">
-        <v>0.0117114405</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2700,52 +2700,52 @@
         <v>0</v>
       </c>
       <c r="V20">
+        <v>1972044.443166074</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0.0149103722</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>372532.3505471479</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>-0.0413174944</v>
       </c>
-      <c r="W20">
+      <c r="AC20">
+        <v>1915546.766317928</v>
+      </c>
+      <c r="AD20">
+        <v>0.1086432697</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>-0.0198890602</v>
+      </c>
+      <c r="AJ20">
         <v>2834341.391755939</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>1915546.766317928</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>-0.0198890602</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
+      <c r="AK20">
         <v>5068115.516006277</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>372532.3505471479</v>
-      </c>
-      <c r="AH20">
-        <v>0.1086432697</v>
-      </c>
-      <c r="AI20">
-        <v>1972044.443166074</v>
-      </c>
-      <c r="AJ20">
-        <v>0.0149103722</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2813,52 +2813,52 @@
         <v>0</v>
       </c>
       <c r="V21">
+        <v>2129127.970287343</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.0042303938</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>397018.0241550213</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>-0.048521582</v>
       </c>
-      <c r="W21">
+      <c r="AC21">
+        <v>2009878.974370154</v>
+      </c>
+      <c r="AD21">
+        <v>0.1083811185</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>-0.0220450461</v>
+      </c>
+      <c r="AJ21">
         <v>2947564.82850934</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>2009878.974370154</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>-0.0220450461</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
+      <c r="AK21">
         <v>5333129.125645376</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>397018.0241550213</v>
-      </c>
-      <c r="AH21">
-        <v>0.1083811185</v>
-      </c>
-      <c r="AI21">
-        <v>2129127.970287343</v>
-      </c>
-      <c r="AJ21">
-        <v>0.0042303938</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
+++ b/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
@@ -73,55 +73,55 @@
     <t>C3_M</t>
   </si>
   <si>
+    <t>GDE</t>
+  </si>
+  <si>
+    <t>M_FITTED</t>
+  </si>
+  <si>
     <t>G_X</t>
   </si>
   <si>
+    <t>M_D</t>
+  </si>
+  <si>
     <t>I_FITTED</t>
   </si>
   <si>
+    <t>I_A</t>
+  </si>
+  <si>
+    <t>CPV_D</t>
+  </si>
+  <si>
+    <t>CPV_FITTED</t>
+  </si>
+  <si>
+    <t>M_A</t>
+  </si>
+  <si>
+    <t>CPV_X</t>
+  </si>
+  <si>
     <t>I_X</t>
   </si>
   <si>
-    <t>M_A</t>
+    <t>CPV_A</t>
+  </si>
+  <si>
+    <t>G_D</t>
+  </si>
+  <si>
+    <t>I_D</t>
+  </si>
+  <si>
+    <t>G_A</t>
   </si>
   <si>
     <t>M_X</t>
   </si>
   <si>
     <t>G_FITTED</t>
-  </si>
-  <si>
-    <t>I_D</t>
-  </si>
-  <si>
-    <t>CPV_A</t>
-  </si>
-  <si>
-    <t>M_FITTED</t>
-  </si>
-  <si>
-    <t>G_A</t>
-  </si>
-  <si>
-    <t>M_D</t>
-  </si>
-  <si>
-    <t>G_D</t>
-  </si>
-  <si>
-    <t>CPV_D</t>
-  </si>
-  <si>
-    <t>CPV_X</t>
-  </si>
-  <si>
-    <t>I_A</t>
-  </si>
-  <si>
-    <t>CPV_FITTED</t>
-  </si>
-  <si>
-    <t>GDE</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
         <v>5.0929</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1825512.8</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>1825512.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -776,55 +776,55 @@
         <v>5.0929</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1870406.3</v>
       </c>
       <c r="V3">
+        <v>474417.4225663497</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>411943.9892882707</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1351731.284733497</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>134150.6429378157</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>474417.4225663497</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>1351731.284733497</v>
-      </c>
-      <c r="AK3">
-        <v>1870406.3</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -889,55 +889,55 @@
         <v>5.0929</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1935213.7</v>
       </c>
       <c r="V4">
+        <v>512704.424158862</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>414043.3396703994</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1399574.647459125</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
         <v>132596.6015634548</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>512704.424158862</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>1399574.647459125</v>
-      </c>
-      <c r="AK4">
-        <v>1935213.7</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1002,55 +1002,55 @@
         <v>5.0929</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2043909.7</v>
       </c>
       <c r="V5">
+        <v>626676.8708797833</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>468242.8233890713</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1442298.247648307</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <v>134806.6977130932</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>626676.8708797833</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>1442298.247648307</v>
-      </c>
-      <c r="AK5">
-        <v>2043909.7</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1115,55 +1115,55 @@
         <v>5.0929</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2166950.6</v>
       </c>
       <c r="V6">
+        <v>735234.5818203983</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>508926.5276223539</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1501461.973481265</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>144267.9636326465</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>735234.5818203983</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>1501461.973481265</v>
-      </c>
-      <c r="AK6">
-        <v>2166950.6</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1228,55 +1228,55 @@
         <v>5.0929</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2244080</v>
       </c>
       <c r="V7">
+        <v>706189.2295817243</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>550158.6805236844</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="Z7">
+        <v>0.0366210094</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1546576.884142847</v>
+      </c>
+      <c r="AC7">
         <v>0.011875537</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>-0.0059448444</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>-0.1008167145</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <v>150415.5421331041</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>-0.0059448444</v>
-      </c>
-      <c r="AC7">
-        <v>706189.2295817243</v>
-      </c>
-      <c r="AD7">
-        <v>-0.1008167145</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0.0366210094</v>
-      </c>
-      <c r="AJ7">
-        <v>1546576.884142847</v>
-      </c>
-      <c r="AK7">
-        <v>2244080</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1341,55 +1341,55 @@
         <v>5.0929</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2417041.8</v>
       </c>
       <c r="V8">
+        <v>891039.1481407079</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>671393.4993739226</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="Z8">
+        <v>0.0451583176</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1592550.403273427</v>
+      </c>
+      <c r="AC8">
         <v>0.0281408606</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>-0.0273947796</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0.0723917115</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>153588.436001128</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>-0.0273947796</v>
-      </c>
-      <c r="AC8">
-        <v>891039.1481407079</v>
-      </c>
-      <c r="AD8">
-        <v>0.0723917115</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0.0451583176</v>
-      </c>
-      <c r="AJ8">
-        <v>1592550.403273427</v>
-      </c>
-      <c r="AK8">
-        <v>2417041.8</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1454,55 +1454,55 @@
         <v>5.0929</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2598996.2</v>
       </c>
       <c r="V9">
+        <v>1062193.666691543</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>806063.058972032</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="Z9">
+        <v>-0.0260052495</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1652846.638169834</v>
+      </c>
+      <c r="AC9">
         <v>0.0267181095</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>-0.0046869225</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>-0.0522855343</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
         <v>177551.6654182632</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>-0.0046869225</v>
-      </c>
-      <c r="AC9">
-        <v>1062193.666691543</v>
-      </c>
-      <c r="AD9">
-        <v>-0.0522855343</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>-0.0260052495</v>
-      </c>
-      <c r="AJ9">
-        <v>1652846.638169834</v>
-      </c>
-      <c r="AK9">
-        <v>2598996.2</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1567,55 +1567,55 @@
         <v>5.0929</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2793224.9</v>
       </c>
       <c r="V10">
+        <v>1214574.273951645</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>886761.4804798999</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="Z10">
+        <v>-0.0139460445</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1763441.663769815</v>
+      </c>
+      <c r="AC10">
         <v>-0.0508146276</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>-0.0146060141</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>-0.005720257800000001</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
         <v>181910.0016105403</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>-0.0146060141</v>
-      </c>
-      <c r="AC10">
-        <v>1214574.273951645</v>
-      </c>
-      <c r="AD10">
-        <v>-0.005720257800000001</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>-0.0139460445</v>
-      </c>
-      <c r="AJ10">
-        <v>1763441.663769815</v>
-      </c>
-      <c r="AK10">
-        <v>2793224.9</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1680,55 +1680,55 @@
         <v>5.0929</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2838795.900004911</v>
       </c>
       <c r="V11">
+        <v>972424.2366263225</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>856043.5118298468</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="Z11">
+        <v>-0.014214803</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1865085.699112024</v>
+      </c>
+      <c r="AC11">
         <v>0.0057838611</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>-0.0339526789</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0.0962277715</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>174395.1757120367</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>-0.0339526789</v>
-      </c>
-      <c r="AC11">
-        <v>972424.2366263225</v>
-      </c>
-      <c r="AD11">
-        <v>0.0962277715</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>-0.014214803</v>
-      </c>
-      <c r="AJ11">
-        <v>1865085.699112024</v>
-      </c>
-      <c r="AK11">
-        <v>2838795.900004911</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1793,55 +1793,55 @@
         <v>5.0929</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2925262.99999084</v>
       </c>
       <c r="V12">
+        <v>945526.951702305</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>873429.1465911651</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Z12">
+        <v>-0.0075041896</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1896129.344496943</v>
+      </c>
+      <c r="AC12">
         <v>0.0650439827</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>-0.0264495572</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0.1143771615</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>188845.3784153127</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>-0.0264495572</v>
-      </c>
-      <c r="AC12">
-        <v>945526.951702305</v>
-      </c>
-      <c r="AD12">
-        <v>0.1143771615</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>-0.0075041896</v>
-      </c>
-      <c r="AJ12">
-        <v>1896129.344496943</v>
-      </c>
-      <c r="AK12">
-        <v>2925262.99999084</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1906,55 +1906,55 @@
         <v>5.0929</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3095840.199948154</v>
       </c>
       <c r="V13">
+        <v>1116927.553016821</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>924786.1817368278</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="Z13">
+        <v>0.0178353155</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1935630.606565933</v>
+      </c>
+      <c r="AC13">
         <v>0.009083160100000001</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>-0.0111558514</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0.1439768935</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>208038.8410709633</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>-0.0111558514</v>
-      </c>
-      <c r="AC13">
-        <v>1116927.553016821</v>
-      </c>
-      <c r="AD13">
-        <v>0.1439768935</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0.0178353155</v>
-      </c>
-      <c r="AJ13">
-        <v>1935630.606565933</v>
-      </c>
-      <c r="AK13">
-        <v>3095840.199948154</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2019,55 +2019,55 @@
         <v>5.0929</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3321270.699924171</v>
       </c>
       <c r="V14">
+        <v>1310725.910222115</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>1041333.090404288</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Z14">
+        <v>0.0186243777</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>2004661.443213911</v>
+      </c>
+      <c r="AC14">
         <v>-0.0392027616</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.0014647886</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0.0669155219</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>236401.4988087929</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0.0014647886</v>
-      </c>
-      <c r="AC14">
-        <v>1310725.910222115</v>
-      </c>
-      <c r="AD14">
-        <v>0.0669155219</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0.0186243777</v>
-      </c>
-      <c r="AJ14">
-        <v>2004661.443213911</v>
-      </c>
-      <c r="AK14">
-        <v>3321270.699924171</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2132,55 +2132,55 @@
         <v>5.0929</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>3640495.985507641</v>
       </c>
       <c r="V15">
+        <v>1610242.823159597</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>1203400.741438531</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="Z15">
+        <v>0.0053637108</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2108767.172806555</v>
+      </c>
+      <c r="AC15">
         <v>-0.1226664373</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0.0200822396</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0.0929918579</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
         <v>254297.2044695461</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.0200822396</v>
-      </c>
-      <c r="AC15">
-        <v>1610242.823159597</v>
-      </c>
-      <c r="AD15">
-        <v>0.0929918579</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0.0053637108</v>
-      </c>
-      <c r="AJ15">
-        <v>2108767.172806555</v>
-      </c>
-      <c r="AK15">
-        <v>3640495.985507641</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2245,55 +2245,55 @@
         <v>5.0929</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>3975605.280395693</v>
       </c>
       <c r="V16">
+        <v>1765604.184740992</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>1379832.491285047</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="Z16">
+        <v>-0.010872342</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>2261012.343321501</v>
+      </c>
+      <c r="AC16">
         <v>-0.1164920029</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0.0180111792</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0.09745998460000001</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <v>279932.7775493472</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0.0180111792</v>
-      </c>
-      <c r="AC16">
-        <v>1765604.184740992</v>
-      </c>
-      <c r="AD16">
-        <v>0.09745998460000001</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>-0.010872342</v>
-      </c>
-      <c r="AJ16">
-        <v>2261012.343321501</v>
-      </c>
-      <c r="AK16">
-        <v>3975605.280395693</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2358,55 +2358,55 @@
         <v>5.0929</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>4305205.604627896</v>
       </c>
       <c r="V17">
+        <v>1859234.447303268</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>1547384.583689336</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Z17">
+        <v>-0.0183324964</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2425257.730707097</v>
+      </c>
+      <c r="AC17">
         <v>-0.08555108360000001</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0.0090988063</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0.1009181204</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>306010.5666965055</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.0090988063</v>
-      </c>
-      <c r="AC17">
-        <v>1859234.447303268</v>
-      </c>
-      <c r="AD17">
-        <v>0.1009181204</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>-0.0183324964</v>
-      </c>
-      <c r="AJ17">
-        <v>2425257.730707097</v>
-      </c>
-      <c r="AK17">
-        <v>4305205.604627896</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2471,55 +2471,55 @@
         <v>5.0929</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>4582305.152295128</v>
       </c>
       <c r="V18">
+        <v>1847296.336925615</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>1689018.647575371</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="Z18">
+        <v>-0.0170100571</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>2587801.351061848</v>
+      </c>
+      <c r="AC18">
         <v>-0.0196669089</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>-0.0119425546</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0.1036879014</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>328773.722412137</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>-0.0119425546</v>
-      </c>
-      <c r="AC18">
-        <v>1847296.336925615</v>
-      </c>
-      <c r="AD18">
-        <v>0.1036879014</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>-0.0170100571</v>
-      </c>
-      <c r="AJ18">
-        <v>2587801.351061848</v>
-      </c>
-      <c r="AK18">
-        <v>4582305.152295128</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2584,55 +2584,55 @@
         <v>5.0929</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>4822993.710257015</v>
       </c>
       <c r="V19">
+        <v>1853895.887169954</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>1824995.955316461</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="Z19">
+        <v>-0.0180544991</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2720714.348864293</v>
+      </c>
+      <c r="AC19">
         <v>0.0117114405</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>-0.0294935944</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0.1061888072</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
         <v>349818.2199411287</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>-0.0294935944</v>
-      </c>
-      <c r="AC19">
-        <v>1853895.887169954</v>
-      </c>
-      <c r="AD19">
-        <v>0.1061888072</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>-0.0180544991</v>
-      </c>
-      <c r="AJ19">
-        <v>2720714.348864293</v>
-      </c>
-      <c r="AK19">
-        <v>4822993.710257015</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2697,55 +2697,55 @@
         <v>5.0929</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>5068115.516006277</v>
       </c>
       <c r="V20">
+        <v>1915546.766317928</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>1972044.443166074</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="Z20">
+        <v>-0.0198890602</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>2834341.391755939</v>
+      </c>
+      <c r="AC20">
         <v>0.0149103722</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>-0.0413174944</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0.1086432697</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
         <v>372532.3505471479</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>-0.0413174944</v>
-      </c>
-      <c r="AC20">
-        <v>1915546.766317928</v>
-      </c>
-      <c r="AD20">
-        <v>0.1086432697</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>-0.0198890602</v>
-      </c>
-      <c r="AJ20">
-        <v>2834341.391755939</v>
-      </c>
-      <c r="AK20">
-        <v>5068115.516006277</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2810,55 +2810,55 @@
         <v>5.0929</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>5333129.125645376</v>
       </c>
       <c r="V21">
+        <v>2009878.974370154</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>2129127.970287343</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="Z21">
+        <v>-0.0220450461</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>2947564.82850934</v>
+      </c>
+      <c r="AC21">
         <v>0.0042303938</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>-0.048521582</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0.1083811185</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>397018.0241550213</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>-0.048521582</v>
-      </c>
-      <c r="AC21">
-        <v>2009878.974370154</v>
-      </c>
-      <c r="AD21">
-        <v>0.1083811185</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>-0.0220450461</v>
-      </c>
-      <c r="AJ21">
-        <v>2947564.82850934</v>
-      </c>
-      <c r="AK21">
-        <v>5333129.125645376</v>
       </c>
     </row>
   </sheetData>

--- a/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
+++ b/papers/mfbook/content/howto/smallmodel/smallmodel.xlsx
@@ -73,55 +73,55 @@
     <t>C3_M</t>
   </si>
   <si>
+    <t>M_A</t>
+  </si>
+  <si>
+    <t>CPV_A</t>
+  </si>
+  <si>
+    <t>M_FITTED</t>
+  </si>
+  <si>
+    <t>I_X</t>
+  </si>
+  <si>
+    <t>M_X</t>
+  </si>
+  <si>
+    <t>G_FITTED</t>
+  </si>
+  <si>
+    <t>CPV_X</t>
+  </si>
+  <si>
+    <t>I_D</t>
+  </si>
+  <si>
+    <t>CPV_FITTED</t>
+  </si>
+  <si>
+    <t>G_A</t>
+  </si>
+  <si>
+    <t>I_A</t>
+  </si>
+  <si>
+    <t>CPV_D</t>
+  </si>
+  <si>
+    <t>G_D</t>
+  </si>
+  <si>
+    <t>I_FITTED</t>
+  </si>
+  <si>
     <t>GDE</t>
   </si>
   <si>
-    <t>M_FITTED</t>
-  </si>
-  <si>
     <t>G_X</t>
   </si>
   <si>
     <t>M_D</t>
-  </si>
-  <si>
-    <t>I_FITTED</t>
-  </si>
-  <si>
-    <t>I_A</t>
-  </si>
-  <si>
-    <t>CPV_D</t>
-  </si>
-  <si>
-    <t>CPV_FITTED</t>
-  </si>
-  <si>
-    <t>M_A</t>
-  </si>
-  <si>
-    <t>CPV_X</t>
-  </si>
-  <si>
-    <t>I_X</t>
-  </si>
-  <si>
-    <t>CPV_A</t>
-  </si>
-  <si>
-    <t>G_D</t>
-  </si>
-  <si>
-    <t>I_D</t>
-  </si>
-  <si>
-    <t>G_A</t>
-  </si>
-  <si>
-    <t>M_X</t>
-  </si>
-  <si>
-    <t>G_FITTED</t>
   </si>
 </sst>
 </file>
@@ -663,49 +663,49 @@
         <v>5.0929</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>1825512.8</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -776,55 +776,55 @@
         <v>5.0929</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>474417.4225663497</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>134150.6429378157</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1351731.284733497</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>411943.9892882707</v>
+      </c>
+      <c r="AI3">
         <v>1870406.3</v>
       </c>
-      <c r="V3">
-        <v>474417.4225663497</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>411943.9892882707</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>1351731.284733497</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>134150.6429378157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -889,55 +889,55 @@
         <v>5.0929</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>512704.424158862</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>132596.6015634548</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1399574.647459125</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>414043.3396703994</v>
+      </c>
+      <c r="AI4">
         <v>1935213.7</v>
       </c>
-      <c r="V4">
-        <v>512704.424158862</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>414043.3396703994</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>1399574.647459125</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>132596.6015634548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1002,55 +1002,55 @@
         <v>5.0929</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>626676.8708797833</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>134806.6977130932</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1442298.247648307</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>468242.8233890713</v>
+      </c>
+      <c r="AI5">
         <v>2043909.7</v>
       </c>
-      <c r="V5">
-        <v>626676.8708797833</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>468242.8233890713</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>1442298.247648307</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>134806.6977130932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1115,55 +1115,55 @@
         <v>5.0929</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>735234.5818203983</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>144267.9636326465</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1501461.973481265</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>508926.5276223539</v>
+      </c>
+      <c r="AI6">
         <v>2166950.6</v>
       </c>
-      <c r="V6">
-        <v>735234.5818203983</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>508926.5276223539</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1501461.973481265</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>144267.9636326465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1228,55 +1228,55 @@
         <v>5.0929</v>
       </c>
       <c r="U7">
+        <v>0.011875537</v>
+      </c>
+      <c r="V7">
+        <v>-0.0059448444</v>
+      </c>
+      <c r="W7">
+        <v>706189.2295817243</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>150415.5421331041</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1546576.884142847</v>
+      </c>
+      <c r="AD7">
+        <v>-0.1008167145</v>
+      </c>
+      <c r="AE7">
+        <v>0.0366210094</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>550158.6805236844</v>
+      </c>
+      <c r="AI7">
         <v>2244080</v>
       </c>
-      <c r="V7">
-        <v>706189.2295817243</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>550158.6805236844</v>
-      </c>
-      <c r="Z7">
-        <v>0.0366210094</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1546576.884142847</v>
-      </c>
-      <c r="AC7">
-        <v>0.011875537</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>-0.0059448444</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>-0.1008167145</v>
-      </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>150415.5421331041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1341,55 +1341,55 @@
         <v>5.0929</v>
       </c>
       <c r="U8">
+        <v>0.0281408606</v>
+      </c>
+      <c r="V8">
+        <v>-0.0273947796</v>
+      </c>
+      <c r="W8">
+        <v>891039.1481407079</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>153588.436001128</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1592550.403273427</v>
+      </c>
+      <c r="AD8">
+        <v>0.0723917115</v>
+      </c>
+      <c r="AE8">
+        <v>0.0451583176</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>671393.4993739226</v>
+      </c>
+      <c r="AI8">
         <v>2417041.8</v>
       </c>
-      <c r="V8">
-        <v>891039.1481407079</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>671393.4993739226</v>
-      </c>
-      <c r="Z8">
-        <v>0.0451583176</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>1592550.403273427</v>
-      </c>
-      <c r="AC8">
-        <v>0.0281408606</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>-0.0273947796</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0.0723917115</v>
-      </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>153588.436001128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1454,55 +1454,55 @@
         <v>5.0929</v>
       </c>
       <c r="U9">
+        <v>0.0267181095</v>
+      </c>
+      <c r="V9">
+        <v>-0.0046869225</v>
+      </c>
+      <c r="W9">
+        <v>1062193.666691543</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>177551.6654182632</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1652846.638169834</v>
+      </c>
+      <c r="AD9">
+        <v>-0.0522855343</v>
+      </c>
+      <c r="AE9">
+        <v>-0.0260052495</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>806063.058972032</v>
+      </c>
+      <c r="AI9">
         <v>2598996.2</v>
       </c>
-      <c r="V9">
-        <v>1062193.666691543</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>806063.058972032</v>
-      </c>
-      <c r="Z9">
-        <v>-0.0260052495</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>1652846.638169834</v>
-      </c>
-      <c r="AC9">
-        <v>0.0267181095</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>-0.0046869225</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>-0.0522855343</v>
-      </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>177551.6654182632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1567,55 +1567,55 @@
         <v>5.0929</v>
       </c>
       <c r="U10">
+        <v>-0.0508146276</v>
+      </c>
+      <c r="V10">
+        <v>-0.0146060141</v>
+      </c>
+      <c r="W10">
+        <v>1214574.273951645</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>181910.0016105403</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1763441.663769815</v>
+      </c>
+      <c r="AD10">
+        <v>-0.005720257800000001</v>
+      </c>
+      <c r="AE10">
+        <v>-0.0139460445</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>886761.4804798999</v>
+      </c>
+      <c r="AI10">
         <v>2793224.9</v>
       </c>
-      <c r="V10">
-        <v>1214574.273951645</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>886761.4804798999</v>
-      </c>
-      <c r="Z10">
-        <v>-0.0139460445</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>1763441.663769815</v>
-      </c>
-      <c r="AC10">
-        <v>-0.0508146276</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>-0.0146060141</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>-0.005720257800000001</v>
-      </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>181910.0016105403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1680,55 +1680,55 @@
         <v>5.0929</v>
       </c>
       <c r="U11">
+        <v>0.0057838611</v>
+      </c>
+      <c r="V11">
+        <v>-0.0339526789</v>
+      </c>
+      <c r="W11">
+        <v>972424.2366263225</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>174395.1757120367</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1865085.699112024</v>
+      </c>
+      <c r="AD11">
+        <v>0.0962277715</v>
+      </c>
+      <c r="AE11">
+        <v>-0.014214803</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>856043.5118298468</v>
+      </c>
+      <c r="AI11">
         <v>2838795.900004911</v>
       </c>
-      <c r="V11">
-        <v>972424.2366263225</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>856043.5118298468</v>
-      </c>
-      <c r="Z11">
-        <v>-0.014214803</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>1865085.699112024</v>
-      </c>
-      <c r="AC11">
-        <v>0.0057838611</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>-0.0339526789</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0.0962277715</v>
-      </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>174395.1757120367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1793,55 +1793,55 @@
         <v>5.0929</v>
       </c>
       <c r="U12">
+        <v>0.0650439827</v>
+      </c>
+      <c r="V12">
+        <v>-0.0264495572</v>
+      </c>
+      <c r="W12">
+        <v>945526.951702305</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>188845.3784153127</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1896129.344496943</v>
+      </c>
+      <c r="AD12">
+        <v>0.1143771615</v>
+      </c>
+      <c r="AE12">
+        <v>-0.0075041896</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>873429.1465911651</v>
+      </c>
+      <c r="AI12">
         <v>2925262.99999084</v>
       </c>
-      <c r="V12">
-        <v>945526.951702305</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>873429.1465911651</v>
-      </c>
-      <c r="Z12">
-        <v>-0.0075041896</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>1896129.344496943</v>
-      </c>
-      <c r="AC12">
-        <v>0.0650439827</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>-0.0264495572</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0.1143771615</v>
-      </c>
       <c r="AJ12">
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>188845.3784153127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1906,55 +1906,55 @@
         <v>5.0929</v>
       </c>
       <c r="U13">
+        <v>0.009083160100000001</v>
+      </c>
+      <c r="V13">
+        <v>-0.0111558514</v>
+      </c>
+      <c r="W13">
+        <v>1116927.553016821</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>208038.8410709633</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1935630.606565933</v>
+      </c>
+      <c r="AD13">
+        <v>0.1439768935</v>
+      </c>
+      <c r="AE13">
+        <v>0.0178353155</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>924786.1817368278</v>
+      </c>
+      <c r="AI13">
         <v>3095840.199948154</v>
       </c>
-      <c r="V13">
-        <v>1116927.553016821</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>924786.1817368278</v>
-      </c>
-      <c r="Z13">
-        <v>0.0178353155</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>1935630.606565933</v>
-      </c>
-      <c r="AC13">
-        <v>0.009083160100000001</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>-0.0111558514</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0.1439768935</v>
-      </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>208038.8410709633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2019,55 +2019,55 @@
         <v>5.0929</v>
       </c>
       <c r="U14">
+        <v>-0.0392027616</v>
+      </c>
+      <c r="V14">
+        <v>0.0014647886</v>
+      </c>
+      <c r="W14">
+        <v>1310725.910222115</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>236401.4988087929</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>2004661.443213911</v>
+      </c>
+      <c r="AD14">
+        <v>0.0669155219</v>
+      </c>
+      <c r="AE14">
+        <v>0.0186243777</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1041333.090404288</v>
+      </c>
+      <c r="AI14">
         <v>3321270.699924171</v>
       </c>
-      <c r="V14">
-        <v>1310725.910222115</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>1041333.090404288</v>
-      </c>
-      <c r="Z14">
-        <v>0.0186243777</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>2004661.443213911</v>
-      </c>
-      <c r="AC14">
-        <v>-0.0392027616</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0.0014647886</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0.0669155219</v>
-      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>236401.4988087929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2132,55 +2132,55 @@
         <v>5.0929</v>
       </c>
       <c r="U15">
+        <v>-0.1226664373</v>
+      </c>
+      <c r="V15">
+        <v>0.0200822396</v>
+      </c>
+      <c r="W15">
+        <v>1610242.823159597</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>254297.2044695461</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>2108767.172806555</v>
+      </c>
+      <c r="AD15">
+        <v>0.0929918579</v>
+      </c>
+      <c r="AE15">
+        <v>0.0053637108</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1203400.741438531</v>
+      </c>
+      <c r="AI15">
         <v>3640495.985507641</v>
       </c>
-      <c r="V15">
-        <v>1610242.823159597</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>1203400.741438531</v>
-      </c>
-      <c r="Z15">
-        <v>0.0053637108</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>2108767.172806555</v>
-      </c>
-      <c r="AC15">
-        <v>-0.1226664373</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0.0200822396</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0.0929918579</v>
-      </c>
       <c r="AJ15">
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>254297.2044695461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2245,55 +2245,55 @@
         <v>5.0929</v>
       </c>
       <c r="U16">
+        <v>-0.1164920029</v>
+      </c>
+      <c r="V16">
+        <v>0.0180111792</v>
+      </c>
+      <c r="W16">
+        <v>1765604.184740992</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>279932.7775493472</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>2261012.343321501</v>
+      </c>
+      <c r="AD16">
+        <v>0.09745998460000001</v>
+      </c>
+      <c r="AE16">
+        <v>-0.010872342</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1379832.491285047</v>
+      </c>
+      <c r="AI16">
         <v>3975605.280395693</v>
       </c>
-      <c r="V16">
-        <v>1765604.184740992</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1379832.491285047</v>
-      </c>
-      <c r="Z16">
-        <v>-0.010872342</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>2261012.343321501</v>
-      </c>
-      <c r="AC16">
-        <v>-0.1164920029</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0.0180111792</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0.09745998460000001</v>
-      </c>
       <c r="AJ16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>279932.7775493472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2358,55 +2358,55 @@
         <v>5.0929</v>
       </c>
       <c r="U17">
+        <v>-0.08555108360000001</v>
+      </c>
+      <c r="V17">
+        <v>0.0090988063</v>
+      </c>
+      <c r="W17">
+        <v>1859234.447303268</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>306010.5666965055</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>2425257.730707097</v>
+      </c>
+      <c r="AD17">
+        <v>0.1009181204</v>
+      </c>
+      <c r="AE17">
+        <v>-0.0183324964</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>1547384.583689336</v>
+      </c>
+      <c r="AI17">
         <v>4305205.604627896</v>
       </c>
-      <c r="V17">
-        <v>1859234.447303268</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1547384.583689336</v>
-      </c>
-      <c r="Z17">
-        <v>-0.0183324964</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>2425257.730707097</v>
-      </c>
-      <c r="AC17">
-        <v>-0.08555108360000001</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0.0090988063</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0.1009181204</v>
-      </c>
       <c r="AJ17">
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>306010.5666965055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2471,55 +2471,55 @@
         <v>5.0929</v>
       </c>
       <c r="U18">
+        <v>-0.0196669089</v>
+      </c>
+      <c r="V18">
+        <v>-0.0119425546</v>
+      </c>
+      <c r="W18">
+        <v>1847296.336925615</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>328773.722412137</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>2587801.351061848</v>
+      </c>
+      <c r="AD18">
+        <v>0.1036879014</v>
+      </c>
+      <c r="AE18">
+        <v>-0.0170100571</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1689018.647575371</v>
+      </c>
+      <c r="AI18">
         <v>4582305.152295128</v>
       </c>
-      <c r="V18">
-        <v>1847296.336925615</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1689018.647575371</v>
-      </c>
-      <c r="Z18">
-        <v>-0.0170100571</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>2587801.351061848</v>
-      </c>
-      <c r="AC18">
-        <v>-0.0196669089</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>-0.0119425546</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0.1036879014</v>
-      </c>
       <c r="AJ18">
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>328773.722412137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2584,55 +2584,55 @@
         <v>5.0929</v>
       </c>
       <c r="U19">
+        <v>0.0117114405</v>
+      </c>
+      <c r="V19">
+        <v>-0.0294935944</v>
+      </c>
+      <c r="W19">
+        <v>1853895.887169954</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>349818.2199411287</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>2720714.348864293</v>
+      </c>
+      <c r="AD19">
+        <v>0.1061888072</v>
+      </c>
+      <c r="AE19">
+        <v>-0.0180544991</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>1824995.955316461</v>
+      </c>
+      <c r="AI19">
         <v>4822993.710257015</v>
       </c>
-      <c r="V19">
-        <v>1853895.887169954</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>1824995.955316461</v>
-      </c>
-      <c r="Z19">
-        <v>-0.0180544991</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>2720714.348864293</v>
-      </c>
-      <c r="AC19">
-        <v>0.0117114405</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>-0.0294935944</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0.1061888072</v>
-      </c>
       <c r="AJ19">
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>349818.2199411287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2697,55 +2697,55 @@
         <v>5.0929</v>
       </c>
       <c r="U20">
+        <v>0.0149103722</v>
+      </c>
+      <c r="V20">
+        <v>-0.0413174944</v>
+      </c>
+      <c r="W20">
+        <v>1915546.766317928</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>372532.3505471479</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>2834341.391755939</v>
+      </c>
+      <c r="AD20">
+        <v>0.1086432697</v>
+      </c>
+      <c r="AE20">
+        <v>-0.0198890602</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>1972044.443166074</v>
+      </c>
+      <c r="AI20">
         <v>5068115.516006277</v>
       </c>
-      <c r="V20">
-        <v>1915546.766317928</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>1972044.443166074</v>
-      </c>
-      <c r="Z20">
-        <v>-0.0198890602</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>2834341.391755939</v>
-      </c>
-      <c r="AC20">
-        <v>0.0149103722</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>-0.0413174944</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0.1086432697</v>
-      </c>
       <c r="AJ20">
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>372532.3505471479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2810,55 +2810,55 @@
         <v>5.0929</v>
       </c>
       <c r="U21">
+        <v>0.0042303938</v>
+      </c>
+      <c r="V21">
+        <v>-0.048521582</v>
+      </c>
+      <c r="W21">
+        <v>2009878.974370154</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>397018.0241550213</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>2947564.82850934</v>
+      </c>
+      <c r="AD21">
+        <v>0.1083811185</v>
+      </c>
+      <c r="AE21">
+        <v>-0.0220450461</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>2129127.970287343</v>
+      </c>
+      <c r="AI21">
         <v>5333129.125645376</v>
       </c>
-      <c r="V21">
-        <v>2009878.974370154</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>2129127.970287343</v>
-      </c>
-      <c r="Z21">
-        <v>-0.0220450461</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>2947564.82850934</v>
-      </c>
-      <c r="AC21">
-        <v>0.0042303938</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>-0.048521582</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0.1083811185</v>
-      </c>
       <c r="AJ21">
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>397018.0241550213</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
